--- a/tests/data/output/一级测试用例-16001_result.xlsx
+++ b/tests/data/output/一级测试用例-16001_result.xlsx
@@ -549,187 +549,187 @@
     <t>true</t>
   </si>
   <si>
-    <t>{"unique_name":"呼丽","unique_id_no":"420822194009241512"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"程鹏","unique_id_no":"542429195102142523"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"费佳","unique_id_no":"53052419760612458X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"杨璐","unique_id_no":"210802199907297209"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"何冬梅","unique_id_no":"210921199110222378"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘凤英","unique_id_no":"330303194812319317"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"萧俊","unique_id_no":"130627199510012179"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"李秀英","unique_id_no":"340801194905086416"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"杨伟","unique_id_no":"130201196607048486"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘楠","unique_id_no":"520525197001013195"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"陈敏","unique_id_no":"520425198202284839"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王柳","unique_id_no":"431127199710293256"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"张杨","unique_id_no":"46030019640928810X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"关涛","unique_id_no":"360121193008012501"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"潘秀荣","unique_id_no":"429004194909277889"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"吴超","unique_id_no":"211282198110268115"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"何玉华","unique_id_no":"450801196701145255"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"陈琳","unique_id_no":"450226199410093078"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"张平","unique_id_no":"320204199703297261"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"邰建军","unique_id_no":"610329197208157985"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"李雪梅","unique_id_no":"422827197404077174"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"宋建平","unique_id_no":"440801199002216706"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"梅洋","unique_id_no":"450423199801206959"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"宋雪梅","unique_id_no":"440100194305163843"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘洁","unique_id_no":"510801196011097627"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"程娜","unique_id_no":"62120219510912692X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王文","unique_id_no":"431024195301231318"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"刘明","unique_id_no":"140900196006078317"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"唐玉梅","unique_id_no":"361028193309104522"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"郭慧","unique_id_no":"620723195807192543"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"郑秀英","unique_id_no":"150926197406210727"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"段勇","unique_id_no":"520326198103240700"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"陈静","unique_id_no":"610322195005259099"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"张桂荣","unique_id_no":"211221198212015909"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"樊利","unique_id_no":"610429194702161033"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"田秀云","unique_id_no":"460106200002216362"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"王艳","unique_id_no":"532324193804262927"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"阎欢","unique_id_no":"330900198408082487"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"扈想","unique_id_no":"140824195007062713"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"陈柳","unique_id_no":"330881195002280490"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"夏燕","unique_id_no":"120102199409275605"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"周兰英","unique_id_no":"650109197811152258"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"林浩","unique_id_no":"542221194802125402"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"马玉珍","unique_id_no":"431122200003180600"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"曹秀芳","unique_id_no":"511803197910158401"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"郭静","unique_id_no":"51342219450113632X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"李雷","unique_id_no":"410527196209175508"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"何洋","unique_id_no":"653100200003228437"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"周涛","unique_id_no":"37083220000426114X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"黄岩","unique_id_no":"61043119531027596X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"李帅","unique_id_no":"411103196102081139"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"潘桂珍","unique_id_no":"23022119340424452X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"陈萍","unique_id_no":"421221199011130998"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"任玉英","unique_id_no":"430203195711224194"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"沈芳","unique_id_no":"140722195802154838"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"罗玲","unique_id_no":"632701193305021636"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"范静","unique_id_no":"210403196506260027"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"邓兵","unique_id_no":"131001196207186265"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"谢秀英","unique_id_no":"22028119770902706X"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"欧阳斌","unique_id_no":"522725196410203326"}</t>
-  </si>
-  <si>
-    <t>{"unique_name":"薛淑兰","unique_id_no":"341323199012278191"}</t>
+    <t>{"unique_name":"胡慧","unique_id_no":"141001197807293706"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"艾婷","unique_id_no":"420624196908241859"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张柳","unique_id_no":"520424196608128427"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"刘洁","unique_id_no":"632701193808290029"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李俊","unique_id_no":"500103197006236079"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"王文","unique_id_no":"610124195307309356"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"左娜","unique_id_no":"130123195203197184"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"何明","unique_id_no":"653022199605077581"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈瑞","unique_id_no":"220322194501269854"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"萧淑珍","unique_id_no":"440402195412098606"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"顾柳","unique_id_no":"360425193305076538"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"阳琴","unique_id_no":"330604195802100132"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"袁凤兰","unique_id_no":"360729193605210120"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈洁","unique_id_no":"513233195601248102"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"刘丽","unique_id_no":"441826196910265831"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"华玉梅","unique_id_no":"653127194309192301"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"黄静","unique_id_no":"530925194509206334"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李博","unique_id_no":"341500193307027663"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"郑颖","unique_id_no":"510600194106018710"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"黄成","unique_id_no":"420304195809118306"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"王倩","unique_id_no":"511803198209027942"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张欢","unique_id_no":"51172419700901468X"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"王想","unique_id_no":"500200195806110586"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张峰","unique_id_no":"140932198712042258"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张帅","unique_id_no":"430902197601301305"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李凤兰","unique_id_no":"620200197512165043"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"明丽","unique_id_no":"230201194403062352"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张桂英","unique_id_no":"370302196809040091"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"赖东","unique_id_no":"431228195206276653"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"朱瑜","unique_id_no":"511701197712193830"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"梁秀珍","unique_id_no":"140927194109143709"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"张宇","unique_id_no":"520325193912149967"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"吴桂芳","unique_id_no":"150929198309070308"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"龙帆","unique_id_no":"152527198711048704"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈萍","unique_id_no":"431026194706286569"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李旭","unique_id_no":"360724199204069002"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"蔡静","unique_id_no":"610114199408299543"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈玉珍","unique_id_no":"422822193603183930"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈丽","unique_id_no":"130424193311235356"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李丹丹","unique_id_no":"433125196902234029"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"刘林","unique_id_no":"411323195608167513"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"覃海燕","unique_id_no":"37032219841219584X"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"胡秀云","unique_id_no":"410411199003082178"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"林军","unique_id_no":"460300197811050321"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"赵浩","unique_id_no":"130627196805179810"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"安畅","unique_id_no":"140502196002022819"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李文","unique_id_no":"130638195612130628"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"赖小红","unique_id_no":"630000194702118368"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"黄淑珍","unique_id_no":"433127198109228960"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"童晶","unique_id_no":"410304198804105938"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"王丽","unique_id_no":"43092119620614843X"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"梁云","unique_id_no":"130102198204191974"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"郑博","unique_id_no":"542622198702250712"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"薛伟","unique_id_no":"522325199603021707"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"葛建平","unique_id_no":"620723198909239043"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"萧霞","unique_id_no":"360827196709252540"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"劳芳","unique_id_no":"451402200012081545"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"李斌","unique_id_no":"320508197608270274"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"陈秀荣","unique_id_no":"441723193604290328"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"谢龙","unique_id_no":"370402193704026279"}</t>
+  </si>
+  <si>
+    <t>{"unique_name":"孟利","unique_id_no":"150100193210233884"}</t>
   </si>
 </sst>
 </file>

--- a/tests/data/output/一级测试用例-16001_result.xlsx
+++ b/tests/data/output/一级测试用例-16001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"凌建平","unique_id_no":"13062819870123717X"}</t>
+          <t>{"unique_name":"葛桂香","unique_id_no":"450803194510284977"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"端文","unique_id_no":"341524193405091205"}</t>
+          <t>{"unique_name":"扈桂兰","unique_id_no":"411300198203076065"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"宦冬梅","unique_id_no":"141122199506253731"}</t>
+          <t>{"unique_name":"厉玉华","unique_id_no":"611022196104155374"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"欧凤兰","unique_id_no":"530723197101026014"}</t>
+          <t>{"unique_name":"冷杨","unique_id_no":"340824200107128186"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"养淑华","unique_id_no":"150404198311242135"}</t>
+          <t>{"unique_name":"陆英","unique_id_no":"141082195803210079"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"喻玉英","unique_id_no":"220102198703183356"}</t>
+          <t>{"unique_name":"严丽丽","unique_id_no":"150702198902140812"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"侯帆","unique_id_no":"440604195308075950"}</t>
+          <t>{"unique_name":"殳梅","unique_id_no":"110101197208191803"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"时琳","unique_id_no":"411323194511278749"}</t>
+          <t>{"unique_name":"夔丽华","unique_id_no":"321300197004038553"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"纪颖","unique_id_no":"542232196203112640"}</t>
+          <t>{"unique_name":"丘桂英","unique_id_no":"430103196806286370"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"鞠杰","unique_id_no":"230881193308262057"}</t>
+          <t>{"unique_name":"呼建华","unique_id_no":"430203194310048682"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"佴玉梅","unique_id_no":"650201194501133271"}</t>
+          <t>{"unique_name":"印燕","unique_id_no":"371323198102170687"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"窦军","unique_id_no":"430301196306187833"}</t>
+          <t>{"unique_name":"龙玉","unique_id_no":"513331194605161504"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"鞠秀珍","unique_id_no":"620821197406028242"}</t>
+          <t>{"unique_name":"石婷婷","unique_id_no":"431100194803057639"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"纪丽华","unique_id_no":"542621193008318861"}</t>
+          <t>{"unique_name":"百欢","unique_id_no":"150502196604110682"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"边阳","unique_id_no":"230882198501015225"}</t>
+          <t>{"unique_name":"金坤","unique_id_no":"320302198403070565"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"邬秀梅","unique_id_no":"410928193309031741"}</t>
+          <t>{"unique_name":"濮帆","unique_id_no":"640425195909245044"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙志强","unique_id_no":"441424193012015891"}</t>
+          <t>{"unique_name":"迟淑珍","unique_id_no":"620301198108015357"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"惠玉兰","unique_id_no":"511102195410016788"}</t>
+          <t>{"unique_name":"水建平","unique_id_no":"12022319780613269X"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙建国","unique_id_no":"430681194706029462"}</t>
+          <t>{"unique_name":"厉鑫","unique_id_no":"652201196108123975"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙桂香","unique_id_no":"360301196002171201"}</t>
+          <t>{"unique_name":"农丽华","unique_id_no":"361100195706218951"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"连洋","unique_id_no":"510522193811198997"}</t>
+          <t>{"unique_name":"殷建华","unique_id_no":"530823199402183499"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"柯丽","unique_id_no":"370304196502072980"}</t>
+          <t>{"unique_name":"商浩","unique_id_no":"211402194508069651"}</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       <c r="F24" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"蒋秀珍","unique_id_no":"321181194709110491"}</t>
+          <t>{"unique_name":"上坤","unique_id_no":"410306198303280765"}</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"钦桂英","unique_id_no":"360828195509158762"}</t>
+          <t>{"unique_name":"蒙桂珍","unique_id_no":"410201196411136190"}</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       <c r="F26" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"薛丹","unique_id_no":"450921197510249102"}</t>
+          <t>{"unique_name":"都红","unique_id_no":"530625200011233097"}</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"柳波","unique_id_no":"632324193507276613"}</t>
+          <t>{"unique_name":"暨杨","unique_id_no":"130183196608084832"}</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"房建华","unique_id_no":"110113198501201644"}</t>
+          <t>{"unique_name":"庄博","unique_id_no":"341500199911214534"}</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"南华","unique_id_no":"360401195611160728"}</t>
+          <t>{"unique_name":"鲁雪","unique_id_no":"130121195504176624"}</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="F30" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"刘桂珍","unique_id_no":"532325198511070605"}</t>
+          <t>{"unique_name":"高杰","unique_id_no":"330322194309267176"}</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"郝健","unique_id_no":"330300195204187803"}</t>
+          <t>{"unique_name":"夹芳","unique_id_no":"320803194808168347"}</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"施雷","unique_id_no":"140824194212239421"}</t>
+          <t>{"unique_name":"门秀云","unique_id_no":"610203193610090371"}</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"仇桂花","unique_id_no":"320481193901297605"}</t>
+          <t>{"unique_name":"门建","unique_id_no":"230506193209236519"}</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       <c r="F34" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"郑桂英","unique_id_no":"350181197909113652"}</t>
+          <t>{"unique_name":"臧建平","unique_id_no":"530000198112293486"}</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"施丽丽","unique_id_no":"420923199212108535"}</t>
+          <t>{"unique_name":"仰斌","unique_id_no":"140723193807109697"}</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"墨丹","unique_id_no":"360100197606116673"}</t>
+          <t>{"unique_name":"敖小红","unique_id_no":"653001197104218306"}</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"查勇","unique_id_no":"210921197708075289"}</t>
+          <t>{"unique_name":"家淑兰","unique_id_no":"530300197101010147"}</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="F38" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"裴岩","unique_id_no":"210224195301299207"}</t>
+          <t>{"unique_name":"房雷","unique_id_no":"450101198203052399"}</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"政敏","unique_id_no":"511700193802143090"}</t>
+          <t>{"unique_name":"干莉","unique_id_no":"220100197806032203"}</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       <c r="F40" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"闻洋","unique_id_no":"654022199102057125"}</t>
+          <t>{"unique_name":"伍洋","unique_id_no":"37011219511116118X"}</t>
         </is>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"贝洋","unique_id_no":"441200195502090920"}</t>
+          <t>{"unique_name":"江楠","unique_id_no":"500240194805317960"}</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       <c r="F42" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"安莉","unique_id_no":"623024197712282802"}</t>
+          <t>{"unique_name":"韩娜","unique_id_no":"52272619390713420X"}</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       <c r="F43" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"曹飞","unique_id_no":"130701199510235593"}</t>
+          <t>{"unique_name":"容桂芝","unique_id_no":"451025196312167563"}</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       <c r="F44" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"单倩","unique_id_no":"530701195312100264"}</t>
+          <t>{"unique_name":"经秀珍","unique_id_no":"520400195709070425"}</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       <c r="F45" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"亓桂芳","unique_id_no":"410185193212133382"}</t>
+          <t>{"unique_name":"督文","unique_id_no":"522730199008129783"}</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="F46" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"连宁","unique_id_no":"120114199610194925"}</t>
+          <t>{"unique_name":"浦兰英","unique_id_no":"430181193606064920"}</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       <c r="F47" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"文霞","unique_id_no":"211003193101151290"}</t>
+          <t>{"unique_name":"鱼红霞","unique_id_no":"310107196809307016"}</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       <c r="F48" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"沙健","unique_id_no":"652201195508257652"}</t>
+          <t>{"unique_name":"寇金凤","unique_id_no":"370634199001039574"}</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       <c r="F49" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"卓小红","unique_id_no":"532328196011298726"}</t>
+          <t>{"unique_name":"山玉兰","unique_id_no":"511703199204136401"}</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"阙鹏","unique_id_no":"540232194105143370"}</t>
+          <t>{"unique_name":"曹玉","unique_id_no":"420583192909301282"}</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       <c r="F51" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"罗桂芳","unique_id_no":"130635197704291605"}</t>
+          <t>{"unique_name":"茅淑兰","unique_id_no":"469003197605154462"}</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       <c r="F52" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"缑兰英","unique_id_no":"451481198408096685"}</t>
+          <t>{"unique_name":"於英","unique_id_no":"152224194904206023"}</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       <c r="F53" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"蔚莹","unique_id_no":"653127197703237268"}</t>
+          <t>{"unique_name":"岳浩","unique_id_no":"431028194704202109"}</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       <c r="F54" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"unique_name":"惠丹","unique_id_no":"321201193009039136"}</t>
+          <t>{"unique_name":"丘飞","unique_id_no":"231181195312036177"}</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       <c r="F55" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"unique_name":"索金凤","unique_id_no":"321202193304062298"}</t>
+          <t>{"unique_name":"田倩","unique_id_no":"23012919931227349X"}</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       <c r="F56" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"unique_name":"离坤","unique_id_no":"410100195810282228"}</t>
+          <t>{"unique_name":"别秀珍","unique_id_no":"610423194904077659"}</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       <c r="F57" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"unique_name":"贲凤兰","unique_id_no":"511603193204028811"}</t>
+          <t>{"unique_name":"匡俊","unique_id_no":"440400197402229453"}</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       <c r="F58" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"unique_name":"翟杰","unique_id_no":"532325198312021755"}</t>
+          <t>{"unique_name":"米燕","unique_id_no":"360983195512237496"}</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       <c r="F59" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"unique_name":"慕鹏","unique_id_no":"421181195811031659"}</t>
+          <t>{"unique_name":"红强","unique_id_no":"610601196505171826"}</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="F60" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"unique_name":"昌秀英","unique_id_no":"140101195606266010"}</t>
+          <t>{"unique_name":"宋玲","unique_id_no":"150223199901085902"}</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       <c r="F61" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"unique_name":"年宁","unique_id_no":"21010519481104044X"}</t>
+          <t>{"unique_name":"别红","unique_id_no":"654028199002043912"}</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       <c r="F62" t="inlineStr">
         <is>
           <t>info_court.id;
-info_court.query_date="2019-07-01"</t>
+info_court.create_time="2019-07-01"</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"unique_name":"古海燕","unique_id_no":"659001198602032993"}</t>
+          <t>{"unique_name":"松红梅","unique_id_no":"511723199209055040"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16001_result.xlsx
+++ b/tests/data/output/一级测试用例-16001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"文晶","unique_id_no":"410329199410013581"}</t>
+          <t>{"unique_name":"和洁","unique_id_no":"21040319670104926X"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"呼刚","unique_id_no":"130629197903066630"}</t>
+          <t>{"unique_name":"向柳","unique_id_no":"350123198102238762"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"丘淑珍","unique_id_no":"211200195907048437"}</t>
+          <t>{"unique_name":"於静","unique_id_no":"610522196112154159"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"郭兵","unique_id_no":"140211196904043133"}</t>
+          <t>{"unique_name":"融玉","unique_id_no":"411321195811164673"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"奚璐","unique_id_no":"210323197702181152"}</t>
+          <t>{"unique_name":"芮淑兰","unique_id_no":"14000019840426406X"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"颛梅","unique_id_no":"131102195206102813"}</t>
+          <t>{"unique_name":"宋春梅","unique_id_no":"510722199903129583"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"滕斌","unique_id_no":"35098119961118598X"}</t>
+          <t>{"unique_name":"闾秀兰","unique_id_no":"52262319610414784X"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙洋","unique_id_no":"411528197208133121"}</t>
+          <t>{"unique_name":"南莉","unique_id_no":"371701197601260715"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"聂明","unique_id_no":"430603197308206114"}</t>
+          <t>{"unique_name":"须燕","unique_id_no":"441203199204094736"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"慕丹","unique_id_no":"630222198004136179"}</t>
+          <t>{"unique_name":"相辉","unique_id_no":"542427194201251787"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"冉建平","unique_id_no":"41172419600709741X"}</t>
+          <t>{"unique_name":"松凤兰","unique_id_no":"420802193103069413"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"华玉梅","unique_id_no":"370402196305159289"}</t>
+          <t>{"unique_name":"束辉","unique_id_no":"42050219860423601X"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"松斌","unique_id_no":"370405195201025520"}</t>
+          <t>{"unique_name":"边雪","unique_id_no":"441721199901220101"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"缪佳","unique_id_no":"370322196610145537"}</t>
+          <t>{"unique_name":"段楠","unique_id_no":"220200197101144120"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"夏丽娟","unique_id_no":"451024195904176921"}</t>
+          <t>{"unique_name":"壤丽娟","unique_id_no":"451026199311137311"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"缪艳","unique_id_no":"451323195911098167"}</t>
+          <t>{"unique_name":"伏勇","unique_id_no":"44098219310110102X"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"融雪","unique_id_no":"321023194003221676"}</t>
+          <t>{"unique_name":"柯帆","unique_id_no":"620501197510310457"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"赵红","unique_id_no":"320106193012234384"}</t>
+          <t>{"unique_name":"师桂香","unique_id_no":"371422196809183844"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"司丽","unique_id_no":"140822194001095058"}</t>
+          <t>{"unique_name":"钦帆","unique_id_no":"510113193206103111"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"能桂芳","unique_id_no":"321311194112150433"}</t>
+          <t>{"unique_name":"文俊","unique_id_no":"623000198001282084"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"公龙","unique_id_no":"42102219910331890X"}</t>
+          <t>{"unique_name":"戚金凤","unique_id_no":"32030119700323075X"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"嵇玉珍","unique_id_no":"231002196402249305"}</t>
+          <t>{"unique_name":"裴艳","unique_id_no":"421281193303257412"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"向雪","unique_id_no":"610924196209188405"}</t>
+          <t>{"unique_name":"盛淑珍","unique_id_no":"360725198611082687"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"帅斌","unique_id_no":"370522199603180910"}</t>
+          <t>{"unique_name":"韶琴","unique_id_no":"430900193310290553"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"桑璐","unique_id_no":"450331195310165976"}</t>
+          <t>{"unique_name":"于晶","unique_id_no":"500000199509081552"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"狐伟","unique_id_no":"14022619460929201X"}</t>
+          <t>{"unique_name":"公伟","unique_id_no":"632802198508172818"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"卜涛","unique_id_no":"341125193106129861"}</t>
+          <t>{"unique_name":"黄兵","unique_id_no":"210904199311191495"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"延晶","unique_id_no":"620403195108290994"}</t>
+          <t>{"unique_name":"扈红霞","unique_id_no":"632500194202251153"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"宦成","unique_id_no":"441882193805314088"}</t>
+          <t>{"unique_name":"舒岩","unique_id_no":"140581193905223402"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"隗芳","unique_id_no":"440703197712297449"}</t>
+          <t>{"unique_name":"弓想","unique_id_no":"440115193102164408"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"咸丽丽","unique_id_no":"34182419420821115X"}</t>
+          <t>{"unique_name":"管平","unique_id_no":"230303199108294856"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"车淑兰","unique_id_no":"110115193604023844"}</t>
+          <t>{"unique_name":"师斌","unique_id_no":"610901195203073982"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"翟岩","unique_id_no":"13110019481219284X"}</t>
+          <t>{"unique_name":"谯宁","unique_id_no":"510821198012248938"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"徒军","unique_id_no":"130533193708255306"}</t>
+          <t>{"unique_name":"钱磊","unique_id_no":"530326198107187398"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"汤萍","unique_id_no":"130100194502141579"}</t>
+          <t>{"unique_name":"司琴","unique_id_no":"610202196007134437"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"凌建国","unique_id_no":"510722199508314455"}</t>
+          <t>{"unique_name":"龙婷","unique_id_no":"610502199911126312"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"巢淑兰","unique_id_no":"371102196307306320"}</t>
+          <t>{"unique_name":"刘浩","unique_id_no":"450125196211301617"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"澹小红","unique_id_no":"410300199902212146"}</t>
+          <t>{"unique_name":"盖莉","unique_id_no":"421223196811067009"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"樊利","unique_id_no":"230716192910097712"}</t>
+          <t>{"unique_name":"皮建军","unique_id_no":"53260119610317601X"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"闾龙","unique_id_no":"230000197501149554"}</t>
+          <t>{"unique_name":"缑建华","unique_id_no":"522629193601221195"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"居凤兰","unique_id_no":"340124193111117921"}</t>
+          <t>{"unique_name":"劳琳","unique_id_no":"211002196408211646"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"松俊","unique_id_no":"640303196103118610"}</t>
+          <t>{"unique_name":"卫志强","unique_id_no":"610431194506218575"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"师凯","unique_id_no":"41018419821207178X"}</t>
+          <t>{"unique_name":"闻瑜","unique_id_no":"360823196409278364"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"丘红霞","unique_id_no":"610323193201131479"}</t>
+          <t>{"unique_name":"官桂香","unique_id_no":"341201196411297288"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"鞠杰","unique_id_no":"131028193911018149"}</t>
+          <t>{"unique_name":"巫春梅","unique_id_no":"210124195512301746"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"勾晶","unique_id_no":"420802195502049857"}</t>
+          <t>{"unique_name":"庄欣","unique_id_no":"532626193706106524"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"于淑华","unique_id_no":"140227196603219116"}</t>
+          <t>{"unique_name":"令瑜","unique_id_no":"370828197404150079"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"韦杨","unique_id_no":"451121194508040477"}</t>
+          <t>{"unique_name":"蔺淑华","unique_id_no":"150425199210195364"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"厍洁","unique_id_no":"513322197910136839"}</t>
+          <t>{"unique_name":"申玉","unique_id_no":"621225198003051251"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"温梅","unique_id_no":"532801200102169678"}</t>
+          <t>{"unique_name":"燕琳","unique_id_no":"610801199904289500"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"哈成","unique_id_no":"542132194311036679"}</t>
+          <t>{"unique_name":"葛玉","unique_id_no":"220600195805256107"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"韶伟","unique_id_no":"370501198009063563"}</t>
+          <t>{"unique_name":"韶玉","unique_id_no":"360313194808171186"}</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"unique_name":"汲秀云","unique_id_no":"430202195209298626"}</t>
+          <t>{"unique_name":"谷畅","unique_id_no":"410404194001318953"}</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"unique_name":"养晶","unique_id_no":"654300193808081961"}</t>
+          <t>{"unique_name":"甄伟","unique_id_no":"430102196412019863"}</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"unique_name":"伍宇","unique_id_no":"532529199603303008"}</t>
+          <t>{"unique_name":"西军","unique_id_no":"450101195602066997"}</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"unique_name":"茹丽华","unique_id_no":"340400196605118333"}</t>
+          <t>{"unique_name":"甄丽华","unique_id_no":"320508198504099091"}</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"unique_name":"琴建","unique_id_no":"440403196607090234"}</t>
+          <t>{"unique_name":"孟帅","unique_id_no":"36098119920228230X"}</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"unique_name":"咎刚","unique_id_no":"654201199207141058"}</t>
+          <t>{"unique_name":"钟慧","unique_id_no":"140428193401319112"}</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"unique_name":"罗旭","unique_id_no":"211001194005300331"}</t>
+          <t>{"unique_name":"刁瑞","unique_id_no":"530630193708185062"}</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"unique_name":"苗颖","unique_id_no":"420526200104191936"}</t>
+          <t>{"unique_name":"邰凤兰","unique_id_no":"411524196212248693"}</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"unique_name":"尉志强","unique_id_no":"653223194605169448"}</t>
+          <t>{"unique_name":"牧丹","unique_id_no":"431125193412293880"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16001_result.xlsx
+++ b/tests/data/output/一级测试用例-16001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,55 +369,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -428,47 +433,54 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>court_admi_vio</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>info_court_administrative_violation.court_id;
 info_court_administrative_violation.case_no[0]="";
 info_court_administrative_violation.case_no[1]=""</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>court_admi_vio=2</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"unique_name":"幸龙","unique_id_no":"340811195404243978"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"unique_name":"沈岩","unique_id_no":"511402199811123394"}</t>
         </is>
       </c>
     </row>
@@ -477,41 +489,48 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>court_admi_vio</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>court_admi_vio=0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"unique_name":"辛建国","unique_id_no":"110228199912204625"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"unique_name":"台宇","unique_id_no":"440700193203209896"}</t>
         </is>
       </c>
     </row>
@@ -520,47 +539,54 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>court_judge</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_no[0]="";
 info_court_judicative_pape.case_no[1]=""</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>court_judge=2</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"unique_name":"司慧","unique_id_no":"330109193208021269"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"unique_name":"霍波","unique_id_no":"350801194202258703"}</t>
         </is>
       </c>
     </row>
@@ -569,41 +595,48 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>court_judge</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>court_judge=0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"unique_name":"莫娟","unique_id_no":"441203197103282712"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"unique_name":"归瑜","unique_id_no":"420281200007274447"}</t>
         </is>
       </c>
     </row>
@@ -612,47 +645,54 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>court_trial_proc</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.case_no[0]="";
 info_court_trial_process.case_no[1]=""</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>court_trial_proc=2</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"unique_name":"柳雪梅","unique_id_no":"220422195604104251"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{"unique_name":"罗博","unique_id_no":"511923199505054545"}</t>
         </is>
       </c>
     </row>
@@ -661,41 +701,48 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>court_trial_proc</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>court_trial_proc=0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"unique_name":"邹淑华","unique_id_no":"620702196802076984"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{"unique_name":"胥凤英","unique_id_no":"220622196403070564"}</t>
         </is>
       </c>
     </row>
@@ -704,47 +751,54 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>court_tax_pay</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>info_court_taxable_abnormal_user.court_id;
 info_court_taxable_abnormal_user.objection[0]="";
 info_court_taxable_abnormal_user.objection[1]=""</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>court_tax_pay=2</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"unique_name":"左淑华","unique_id_no":"350300198407150290"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{"unique_name":"祖畅","unique_id_no":"51332519350919120X"}</t>
         </is>
       </c>
     </row>
@@ -753,41 +807,48 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>court_tax_pay</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>court_tax_pay=0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"unique_name":"连霞","unique_id_no":"411723196111111422"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{"unique_name":"宰萍","unique_id_no":"130926197908077942"}</t>
         </is>
       </c>
     </row>
@@ -796,47 +857,54 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>court_owed_owe</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>info_court_arrearage.court_id;
 info_court_arrearage.objection[0]="";
 info_court_arrearage.objection[1]=""</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>court_owed_owe=2</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"unique_name":"仲娜","unique_id_no":"64010419690105053X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{"unique_name":"鄂琴","unique_id_no":"330122199903187154"}</t>
         </is>
       </c>
     </row>
@@ -845,41 +913,48 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>court_owed_owe</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>court_owed_owe=0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"unique_name":"殳建国","unique_id_no":"152526196305032314"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{"unique_name":"杭凤英","unique_id_no":"610623197411267803"}</t>
         </is>
       </c>
     </row>
@@ -888,47 +963,54 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>court_tax_arrears</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>info_court_tax_arrears.court_id;
 info_court_tax_arrears.objection[0]="";
 info_court_tax_arrears.objection[1]=""</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>court_tax_pay=2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"unique_name":"游欣","unique_id_no":"441501195605165908"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{"unique_name":"焦婷婷","unique_id_no":"610322193409166551"}</t>
         </is>
       </c>
     </row>
@@ -937,41 +1019,48 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>court_tax_arrears</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>court_tax_pay=0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"unique_name":"门秀兰","unique_id_no":"220421195805111136"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{"unique_name":"项欢","unique_id_no":"441303200010299718"}</t>
         </is>
       </c>
     </row>
@@ -980,47 +1069,54 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>court_dishonesty</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>info_court_deadbeat.court_id;
 info_court_deadbeat.objection[0]="";
 info_court_deadbeat.objection[1]=""</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>court_dishonesty=2</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"unique_name":"舒洋","unique_id_no":"445301198503221557"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{"unique_name":"东琳","unique_id_no":"211321197403049723"}</t>
         </is>
       </c>
     </row>
@@ -1029,41 +1125,48 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>14</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>court_dishonesty</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>court_dishonesty=0</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"unique_name":"路想","unique_id_no":"130703195710228034"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{"unique_name":"能欣","unique_id_no":"522702197803301808"}</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1175,54 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>court_limit_entry</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>info_court_limited_entry_exit.court_id;
 info_court_limited_entry_exit.objection[0]="";
 info_court_limited_entry_exit.objection[1]=""</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>court_limit_entry=2</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"unique_name":"郝玉英","unique_id_no":"220802197707218791"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{"unique_name":"漆建","unique_id_no":"430903195104298958"}</t>
         </is>
       </c>
     </row>
@@ -1121,41 +1231,48 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>court_limit_entry</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>court_limit_entry=0</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"unique_name":"季建军","unique_id_no":"421221198202107518"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{"unique_name":"吉梅","unique_id_no":"14052219620902346X"}</t>
         </is>
       </c>
     </row>
@@ -1164,47 +1281,54 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>17</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>court_high_cons</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>info_court_limit_hignspending.court_id;
 info_court_limit_hignspending.objection[0]="";
 info_court_limit_hignspending.objection[1]=""</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>court_high_cons=2</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"unique_name":"谢燕","unique_id_no":"510112194606144228"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{"unique_name":"车建","unique_id_no":"451123198004128169"}</t>
         </is>
       </c>
     </row>
@@ -1213,41 +1337,48 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>18</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>court_high_cons</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>court_high_cons=0</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"unique_name":"邴晶","unique_id_no":"511002198804141301"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{"unique_name":"周强","unique_id_no":"220582196612201103"}</t>
         </is>
       </c>
     </row>
@@ -1256,47 +1387,54 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>court_pub_info</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>info_court_excute_public.court_id;
 info_court_excute_public.objection[0]="";
 info_court_excute_public.objection[1]=""</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>court_pub_info=2</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"unique_name":"闾旭","unique_id_no":"610602196106275253"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{"unique_name":"古东","unique_id_no":"430523193212276419"}</t>
         </is>
       </c>
     </row>
@@ -1305,41 +1443,48 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>court_pub_info</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>court_pub_info=0</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"unique_name":"寿小红","unique_id_no":"440507197805144075"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"unique_name":"时建华","unique_id_no":"620123193207282084"}</t>
         </is>
       </c>
     </row>
@@ -1348,47 +1493,54 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>court_cri_sus</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>info_court_criminal_suspect.court_id;
 info_court_criminal_suspect.objection[0]="";
 info_court_criminal_suspect.objection[1]=""</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>court_cri_sus=2</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"unique_name":"古秀云","unique_id_no":"340104195809105889"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{"unique_name":"邰刚","unique_id_no":"341500198201304610"}</t>
         </is>
       </c>
     </row>
@@ -1397,41 +1549,48 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>22</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>court_cri_sus</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>info_court.id</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>court_cri_sus=0</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"unique_name":"后秀华","unique_id_no":"623025198602031018"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"unique_name":"公刚","unique_id_no":"350206194002201883"}</t>
         </is>
       </c>
     </row>
@@ -1440,25 +1599,26 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>23</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>court_tax_arrears_amt_3y</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>info_court_tax_arrears.court_id;
 info_court_tax_arrears.taxes_time[0]="2016-07-01";
@@ -1469,23 +1629,29 @@
 info_court_tax_arrears.taxes[2]=2998.95</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>court_tax_arrears_amt_3y=4000.00</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>4000</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"unique_name":"奚颖","unique_id_no":"820000196612104565"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{"unique_name":"牧亮","unique_id_no":"150900196207057151"}</t>
         </is>
       </c>
     </row>
@@ -1494,42 +1660,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>24</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>court_tax_arrears_amt_3y</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>court_tax_arrears_amt_3y=0</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"unique_name":"余玉华","unique_id_no":"371522199406026990"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{"unique_name":"史艳","unique_id_no":"140623194208179609"}</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1711,26 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>25</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>court_pub_info_amt_3y</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>info_court_excute_public.court_id;
 info_court_excute_public.filing_time[0]="2016-07-01";
@@ -1567,23 +1741,29 @@
 info_court_excute_public.execute_content[2]="执行标的金额(万元):0.1"</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>court_pub_info_amt_3y=3500.00</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>3500</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{"unique_name":"喻莹","unique_id_no":"140827198305247903"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{"unique_name":"周玉兰","unique_id_no":"41120219510126208X"}</t>
         </is>
       </c>
     </row>
@@ -1592,42 +1772,49 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>26</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>court_pub_info_amt_3y</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
         <is>
           <t>court_pub_info_amt_3y=0</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{"unique_name":"强桂荣","unique_id_no":"610927198602264804"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{"unique_name":"翁芳","unique_id_no":"371603198806289177"}</t>
         </is>
       </c>
     </row>
@@ -1636,25 +1823,26 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>27</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>court_admi_vio_amt_3y</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>info_court_administrative_violation.court_id;
 info_court_administrative_violation.specific_date[0]="2016-07-01";
@@ -1665,23 +1853,29 @@
 info_court_administrative_violation.execution_result[2]="罚款3000"</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>court_admi_vio_amt_3y=5500.00</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>5500</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{"unique_name":"刘桂英","unique_id_no":"440281193005233159"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{"unique_name":"咸帆","unique_id_no":"23030119981016264X"}</t>
         </is>
       </c>
     </row>
@@ -1690,42 +1884,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>court_admi_vio_amt_3y</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>court_admi_vio_amt_3y=0</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{"unique_name":"强强","unique_id_no":"130322199612139834"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{"unique_name":"酆丹","unique_id_no":"510724193508233925"}</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1935,26 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>29</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>court_judge_amt_3y</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.closed_time[0]="2016-07-01";
@@ -1763,23 +1965,29 @@
 info_court_judicative_pape.case_amount[2]=3000</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>court_judge_amt_3y=5500</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>5500</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{"unique_name":"贡倩","unique_id_no":"341521198512316514"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{"unique_name":"从明","unique_id_no":"150922196908072344"}</t>
         </is>
       </c>
     </row>
@@ -1788,42 +1996,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>30</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>court_judge_amt_3y</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>court_judge_amt_3y=0</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{"unique_name":"阳秀梅","unique_id_no":"440104194301153934"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{"unique_name":"南鹏","unique_id_no":"320706195209040980"}</t>
         </is>
       </c>
     </row>
@@ -1832,48 +2047,55 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>31</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>court_docu_status</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.legal_status[0]="";
 info_court_judicative_pape.legal_status[1]=""</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>court_docu_status=0</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{"unique_name":"督秀荣","unique_id_no":"370911195403110787"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{"unique_name":"何娟","unique_id_no":"511827194202228453"}</t>
         </is>
       </c>
     </row>
@@ -1882,25 +2104,26 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>32</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>court_docu_status</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.legal_status[0]="原告";
@@ -1908,23 +2131,29 @@
 info_court_judicative_pape.legal_status[2]="原告"</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
         <is>
           <t>court_docu_status=1</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{"unique_name":"父斌","unique_id_no":"620825196501250475"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{"unique_name":"养玉","unique_id_no":"37172420010220542X"}</t>
         </is>
       </c>
     </row>
@@ -1933,25 +2162,26 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>33</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>court_docu_status</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.legal_status[0]="原告";
@@ -1959,23 +2189,29 @@
 info_court_judicative_pape.legal_status[2]="原告"</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>court_docu_status=3</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"unique_name":"吴健","unique_id_no":"320923193809304028"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{"unique_name":"金秀梅","unique_id_no":"360824195210015921"}</t>
         </is>
       </c>
     </row>
@@ -1984,25 +2220,26 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
         <v>34</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>court_docu_status</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.legal_status[0]="原告";
@@ -2010,23 +2247,29 @@
 info_court_judicative_pape.legal_status[2]="被告"</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
         <is>
           <t>court_docu_status=2</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{"unique_name":"申欣","unique_id_no":"511421195705318746"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>{"unique_name":"凤军","unique_id_no":"420114195412171856"}</t>
         </is>
       </c>
     </row>
@@ -2035,25 +2278,26 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
         <v>35</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>court_docu_status</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.legal_status[0]="被告";
@@ -2061,23 +2305,29 @@
 info_court_judicative_pape.legal_status[2]="被告"</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>court_docu_status=2</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{"unique_name":"姬桂兰","unique_id_no":"43051119560913341X"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{"unique_name":"殴海燕","unique_id_no":"320382196705021059"}</t>
         </is>
       </c>
     </row>
@@ -2086,48 +2336,55 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
         <v>36</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>court_proc_status</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.legal_status[0]="";
 info_court_trial_process.legal_status[1]=""</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>court_proc_status=0</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{"unique_name":"卢磊","unique_id_no":"210105193904039953"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{"unique_name":"简坤","unique_id_no":"210303196205016842"}</t>
         </is>
       </c>
     </row>
@@ -2136,25 +2393,26 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
         <v>37</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>court_proc_status</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.legal_status[0]="原告";
@@ -2162,23 +2420,29 @@
 info_court_trial_process.legal_status[2]="原告"</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
         <is>
           <t>court_proc_status=1</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>{"unique_name":"秋磊","unique_id_no":"620121195211292775"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{"unique_name":"余涛","unique_id_no":"430621195012200155"}</t>
         </is>
       </c>
     </row>
@@ -2187,25 +2451,26 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
         <v>38</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>court_proc_status</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.legal_status[0]="原告";
@@ -2213,23 +2478,29 @@
 info_court_trial_process.legal_status[2]="原告"</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
         <is>
           <t>court_proc_status=3</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{"unique_name":"苗想","unique_id_no":"530629199610312264"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{"unique_name":"童畅","unique_id_no":"411727198908283605"}</t>
         </is>
       </c>
     </row>
@@ -2238,25 +2509,26 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
         <v>39</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>court_proc_status</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.legal_status[0]="原告";
@@ -2264,23 +2536,29 @@
 info_court_trial_process.legal_status[2]="被告"</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>court_proc_status=2</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{"unique_name":"穆淑兰","unique_id_no":"520625198408126693"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{"unique_name":"颜佳","unique_id_no":"371103195006155954"}</t>
         </is>
       </c>
     </row>
@@ -2289,25 +2567,26 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
         <v>40</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>court_proc_status</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.legal_status[0]="被告";
@@ -2315,23 +2594,29 @@
 info_court_trial_process.legal_status[2]="被告"</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>court_proc_status=2</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{"unique_name":"商浩","unique_id_no":"540123197502152459"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>{"unique_name":"扈凤兰","unique_id_no":"653024193301100602"}</t>
         </is>
       </c>
     </row>
@@ -2340,25 +2625,26 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
         <v>41</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>court_fin_loan_con</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_reason[0]="金融借款合同纠纷";
@@ -2367,23 +2653,29 @@
 info_court_judicative_pape.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
         <is>
           <t>court_fin_loan_con=1</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{"unique_name":"皮建军","unique_id_no":"130101199108152033"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>{"unique_name":"宗强","unique_id_no":"510723194708179933"}</t>
         </is>
       </c>
     </row>
@@ -2392,25 +2684,26 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
         <v>42</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>court_fin_loan_con</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_reason[0]="金融借款合同纠纷";
@@ -2419,23 +2712,29 @@
 info_court_judicative_pape.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
         <is>
           <t>court_proc_status=0</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{"unique_name":"宫倩","unique_id_no":"330726194310122211"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>{"unique_name":"饶玉梅","unique_id_no":"652323196306059832"}</t>
         </is>
       </c>
     </row>
@@ -2444,25 +2743,26 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
         <v>43</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>court_fin_loan_con</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.case_reason[0]="金融借款合同纠纷";
@@ -2471,23 +2771,29 @@
 info_court_trial_process.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
         <is>
           <t>court_fin_loan_con=1</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{"unique_name":"童琴","unique_id_no":"429004194105218859"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>{"unique_name":"施玲","unique_id_no":"421101193005302361"}</t>
         </is>
       </c>
     </row>
@@ -2496,25 +2802,26 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
         <v>44</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>court_fin_loan_con</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.case_reason[0]="金融借款合同纠纷";
@@ -2523,23 +2830,29 @@
 info_court_trial_process.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
         <is>
           <t>court_proc_status=0</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{"unique_name":"仲亮","unique_id_no":"120104196511264020"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>{"unique_name":"松桂芳","unique_id_no":"620301195505067456"}</t>
         </is>
       </c>
     </row>
@@ -2548,25 +2861,26 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
         <v>46</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>court_loan_con</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_reason[0]="借款合同纠纷";
@@ -2575,23 +2889,29 @@
 info_court_judicative_pape.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
         <is>
           <t>court_loan_con=1</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{"unique_name":"邢坤","unique_id_no":"610900198401201444"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>{"unique_name":"屠秀云","unique_id_no":"410411194605097622"}</t>
         </is>
       </c>
     </row>
@@ -2600,25 +2920,26 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
         <v>47</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>court_loan_con</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_reason[0]="借款合同纠纷";
@@ -2627,23 +2948,29 @@
 info_court_judicative_pape.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
         <is>
           <t>court_loan_con=0</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{"unique_name":"郦帆","unique_id_no":"150602199302097901"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>{"unique_name":"朱萍","unique_id_no":"330327198802262272"}</t>
         </is>
       </c>
     </row>
@@ -2652,25 +2979,26 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
         <v>48</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>court_loan_con</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.case_reason[0]="借款合同纠纷";
@@ -2679,23 +3007,29 @@
 info_court_trial_process.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
         <is>
           <t>court_loan_con=1</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{"unique_name":"涂雷","unique_id_no":"441825197904097040"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>{"unique_name":"羊峰","unique_id_no":"360403193302237027"}</t>
         </is>
       </c>
     </row>
@@ -2704,25 +3038,26 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
         <v>49</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>court_loan_con</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.case_reason[0]="借款合同纠纷";
@@ -2731,23 +3066,29 @@
 info_court_trial_process.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
         <is>
           <t>court_loan_con=0</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{"unique_name":"单娟","unique_id_no":"130603194811189361"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>{"unique_name":"从辉","unique_id_no":"361027195605151860"}</t>
         </is>
       </c>
     </row>
@@ -2756,25 +3097,26 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
         <v>50</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>court_pop_loan</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_reason[0]="民间借贷纠纷";
@@ -2783,23 +3125,29 @@
 info_court_judicative_pape.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
         <is>
           <t>court_pop_loan=1</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{"unique_name":"左淑兰","unique_id_no":"371327195912076184"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>{"unique_name":"侯楠","unique_id_no":"320412199409061654"}</t>
         </is>
       </c>
     </row>
@@ -2808,25 +3156,26 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
         <v>51</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>court_pop_loan</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_reason[0]="民间借贷纠纷";
@@ -2835,23 +3184,29 @@
 info_court_judicative_pape.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
         <is>
           <t>court_pop_loan=0</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{"unique_name":"廖璐","unique_id_no":"370600193408152519"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>{"unique_name":"古玉梅","unique_id_no":"420684196708175363"}</t>
         </is>
       </c>
     </row>
@@ -2860,25 +3215,26 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
         <v>52</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>court_pop_loan</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.case_reason[0]="民间借贷纠纷";
@@ -2887,23 +3243,29 @@
 info_court_trial_process.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
         <is>
           <t>court_pop_loan=1</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{"unique_name":"仰伟","unique_id_no":"410926195008283730"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>{"unique_name":"朱颖","unique_id_no":"440308195501167047"}</t>
         </is>
       </c>
     </row>
@@ -2912,25 +3274,26 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
         <v>53</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>court_pop_loan</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>info_court_trial_process.court_id;
 info_court_trial_process.case_reason[0]="民间借贷纠纷";
@@ -2939,23 +3302,29 @@
 info_court_trial_process.legal_status[1]="被告"</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>court_pop_loan=0</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{"unique_name":"缑想","unique_id_no":"220323193908137572"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>{"unique_name":"傅燕","unique_id_no":"410822198911270357"}</t>
         </is>
       </c>
     </row>
@@ -2964,48 +3333,55 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
         <v>54</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>court_tax_arrears_max</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>info_court_tax_arrears.court_id;
 info_court_tax_arrears.taxes[0]=2000;
 info_court_tax_arrears.taxes[1]=3000</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
         <is>
           <t>court_tax_arrears_max=3000</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>3000</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{"unique_name":"国畅","unique_id_no":"440605195507061689"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>{"unique_name":"祁飞","unique_id_no":"430100196706103304"}</t>
         </is>
       </c>
     </row>
@@ -3014,42 +3390,49 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
         <v>55</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>court_tax_arrears_max</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
         <is>
           <t>court_tax_arrears_max=0</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>{"unique_name":"雕燕","unique_id_no":"410108197103280506"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>{"unique_name":"莫志强","unique_id_no":"542623196212284343"}</t>
         </is>
       </c>
     </row>
@@ -3058,25 +3441,26 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
         <v>56</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>court_pub_info_max</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>info_court_excute_public.court_id;
 info_court_excute_public.execute_content[0]="金额:2500.00";
@@ -3084,23 +3468,29 @@
 info_court_excute_public.execute_content[2]="执行标的金额(万元):0.1"</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
         <is>
           <t>court_pub_info_max=3000</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>3000</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{"unique_name":"正红梅","unique_id_no":"130902199301170313"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>{"unique_name":"易建军","unique_id_no":"410306194309159837"}</t>
         </is>
       </c>
     </row>
@@ -3109,25 +3499,26 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
         <v>57</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>court_pub_info_max</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>info_court_excute_public.court_id;
 info_court_excute_public.execute_content[0]="金额:4500.00";
@@ -3135,23 +3526,29 @@
 info_court_excute_public.execute_content[2]="执行标的金额(万元):0.1"</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
         <is>
           <t>court_pub_info_max=4500</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>4500</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{"unique_name":"胡丽华","unique_id_no":"370786197112092813"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>{"unique_name":"寿秀珍","unique_id_no":"445100197405166089"}</t>
         </is>
       </c>
     </row>
@@ -3160,42 +3557,49 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
         <v>58</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>court_pub_info_max</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
         <is>
           <t>court_pub_info_max=0</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{"unique_name":"卓兵","unique_id_no":"532525196406181946"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>{"unique_name":"暨春梅","unique_id_no":"230229195705165278"}</t>
         </is>
       </c>
     </row>
@@ -3204,25 +3608,26 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
         <v>59</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>court_admi_violation_max</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>info_court_administrative_violation.court_id;
 info_court_administrative_violation.execution_result[0]="金额:2500.00";
@@ -3230,23 +3635,29 @@
 info_court_administrative_violation.execution_result[2]="罚款3000"</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
         <is>
           <t>court_admi_violation_max=4000</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>4000</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{"unique_name":"詹鑫","unique_id_no":"420107197204129894"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>{"unique_name":"荀璐","unique_id_no":"340402196812053790"}</t>
         </is>
       </c>
     </row>
@@ -3255,42 +3666,49 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
         <v>60</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>court_admi_violation_max</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
         <is>
           <t>court_admi_violation_max=0</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>{"unique_name":"邰玲","unique_id_no":"620500194104108288"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>{"unique_name":"淳红","unique_id_no":"21070119320821556X"}</t>
         </is>
       </c>
     </row>
@@ -3299,48 +3717,55 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
         <v>61</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>court_judge_max</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>info_court_judicative_pape.court_id;
 info_court_judicative_pape.case_amount[0]=2000;
 info_court_judicative_pape.case_amount[1]=3000</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
         <is>
           <t>court_judge_max=3000</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>3000</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>{"unique_name":"闵亮","unique_id_no":"130223197611032981"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>{"unique_name":"奚欢","unique_id_no":"530724197612150697"}</t>
         </is>
       </c>
     </row>
@@ -3349,42 +3774,49 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
         <v>62</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>16001</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="n">
+        <v>16001</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>court_judge_max</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>info_court.id;
 info_court.create_time="2019-07-01"</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
         <is>
           <t>court_judge_max=0</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>unique_name;
-unique_id_no</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>unique_name;
+unique_id_no</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{"unique_name":"文佳","unique_id_no":"530900199212048422"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>{"unique_name":"石强","unique_id_no":"371521195405260051"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16001_result.xlsx
+++ b/tests/data/output/一级测试用例-16001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"沈岩","unique_id_no":"511402199811123394"}</t>
+          <t>{"unique_name":"人林","unique_id_no":"410221196712222426"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"台宇","unique_id_no":"440700193203209896"}</t>
+          <t>{"unique_name":"阙龙","unique_id_no":"542226199410214646"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"霍波","unique_id_no":"350801194202258703"}</t>
+          <t>{"unique_name":"翁莉","unique_id_no":"360000196110013806"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"归瑜","unique_id_no":"420281200007274447"}</t>
+          <t>{"unique_name":"郑辉","unique_id_no":"430523197004131803"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"罗博","unique_id_no":"511923199505054545"}</t>
+          <t>{"unique_name":"乌建","unique_id_no":"450902194602264761"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"胥凤英","unique_id_no":"220622196403070564"}</t>
+          <t>{"unique_name":"山宁","unique_id_no":"620600199512248691"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"祖畅","unique_id_no":"51332519350919120X"}</t>
+          <t>{"unique_name":"干凯","unique_id_no":"441600194303192796"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"宰萍","unique_id_no":"130926197908077942"}</t>
+          <t>{"unique_name":"东燕","unique_id_no":"460300199602074748"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"鄂琴","unique_id_no":"330122199903187154"}</t>
+          <t>{"unique_name":"邢静","unique_id_no":"361026196804088161"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"杭凤英","unique_id_no":"610623197411267803"}</t>
+          <t>{"unique_name":"蒋颖","unique_id_no":"330000198704010075"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"焦婷婷","unique_id_no":"610322193409166551"}</t>
+          <t>{"unique_name":"佴帅","unique_id_no":"220211200004289065"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"项欢","unique_id_no":"441303200010299718"}</t>
+          <t>{"unique_name":"双英","unique_id_no":"513324193611137246"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"东琳","unique_id_no":"211321197403049723"}</t>
+          <t>{"unique_name":"满莹","unique_id_no":"420607197309125045"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"能欣","unique_id_no":"522702197803301808"}</t>
+          <t>{"unique_name":"沈琳","unique_id_no":"450126199106110798"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"漆建","unique_id_no":"430903195104298958"}</t>
+          <t>{"unique_name":"呼帅","unique_id_no":"650202194307041214"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"吉梅","unique_id_no":"14052219620902346X"}</t>
+          <t>{"unique_name":"於秀珍","unique_id_no":"360103197909089149"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"车建","unique_id_no":"451123198004128169"}</t>
+          <t>{"unique_name":"俟兵","unique_id_no":"450125199706155934"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"周强","unique_id_no":"220582196612201103"}</t>
+          <t>{"unique_name":"濮阳","unique_id_no":"140424195105020611"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"古东","unique_id_no":"430523193212276419"}</t>
+          <t>{"unique_name":"能婷婷","unique_id_no":"610724193911255183"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"时建华","unique_id_no":"620123193207282084"}</t>
+          <t>{"unique_name":"宇冬梅","unique_id_no":"361001195407221553"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"邰刚","unique_id_no":"341500198201304610"}</t>
+          <t>{"unique_name":"门建军","unique_id_no":"130401197002074564"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"公刚","unique_id_no":"350206194002201883"}</t>
+          <t>{"unique_name":"冀玉兰","unique_id_no":"341822195311308146"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"牧亮","unique_id_no":"150900196207057151"}</t>
+          <t>{"unique_name":"冷丽华","unique_id_no":"210301193212065996"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"史艳","unique_id_no":"140623194208179609"}</t>
+          <t>{"unique_name":"楚红霞","unique_id_no":"410211193205162581"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"周玉兰","unique_id_no":"41120219510126208X"}</t>
+          <t>{"unique_name":"黄健","unique_id_no":"340301196705201813"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"翁芳","unique_id_no":"371603198806289177"}</t>
+          <t>{"unique_name":"龚秀芳","unique_id_no":"360922196812063872"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"咸帆","unique_id_no":"23030119981016264X"}</t>
+          <t>{"unique_name":"邹秀荣","unique_id_no":"520181197507310364"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"酆丹","unique_id_no":"510724193508233925"}</t>
+          <t>{"unique_name":"雷成","unique_id_no":"361030197002089321"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"从明","unique_id_no":"150922196908072344"}</t>
+          <t>{"unique_name":"双柳","unique_id_no":"441300199405202349"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"南鹏","unique_id_no":"320706195209040980"}</t>
+          <t>{"unique_name":"容雷","unique_id_no":"370321195108198376"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"何娟","unique_id_no":"511827194202228453"}</t>
+          <t>{"unique_name":"章柳","unique_id_no":"410304199107060345"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"养玉","unique_id_no":"37172420010220542X"}</t>
+          <t>{"unique_name":"仇慧","unique_id_no":"542431193503230084"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"金秀梅","unique_id_no":"360824195210015921"}</t>
+          <t>{"unique_name":"杭丽华","unique_id_no":"152527194001021074"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"凤军","unique_id_no":"420114195412171856"}</t>
+          <t>{"unique_name":"台建军","unique_id_no":"53332319540322750X"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"殴海燕","unique_id_no":"320382196705021059"}</t>
+          <t>{"unique_name":"荣桂英","unique_id_no":"370830193908262414"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"简坤","unique_id_no":"210303196205016842"}</t>
+          <t>{"unique_name":"杜博","unique_id_no":"45033019560817932X"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"余涛","unique_id_no":"430621195012200155"}</t>
+          <t>{"unique_name":"单建国","unique_id_no":"340823199903043077"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"童畅","unique_id_no":"411727198908283605"}</t>
+          <t>{"unique_name":"喻玉兰","unique_id_no":"320508194711056694"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"颜佳","unique_id_no":"371103195006155954"}</t>
+          <t>{"unique_name":"晋晨","unique_id_no":"331081193112048180"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"扈凤兰","unique_id_no":"653024193301100602"}</t>
+          <t>{"unique_name":"滑金凤","unique_id_no":"530300194003111530"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"宗强","unique_id_no":"510723194708179933"}</t>
+          <t>{"unique_name":"车秀兰","unique_id_no":"211003199811083920"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"饶玉梅","unique_id_no":"652323196306059832"}</t>
+          <t>{"unique_name":"池阳","unique_id_no":"34132119760116131X"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"施玲","unique_id_no":"421101193005302361"}</t>
+          <t>{"unique_name":"温春梅","unique_id_no":"37078619940114018X"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"松桂芳","unique_id_no":"620301195505067456"}</t>
+          <t>{"unique_name":"弘刚","unique_id_no":"420111196609095397"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"屠秀云","unique_id_no":"410411194605097622"}</t>
+          <t>{"unique_name":"羿飞","unique_id_no":"51030119531015794X"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"朱萍","unique_id_no":"330327198802262272"}</t>
+          <t>{"unique_name":"嵇欢","unique_id_no":"440705198208036554"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"羊峰","unique_id_no":"360403193302237027"}</t>
+          <t>{"unique_name":"百红梅","unique_id_no":"140932197902027863"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"从辉","unique_id_no":"361027195605151860"}</t>
+          <t>{"unique_name":"甫建国","unique_id_no":"630121193509157384"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"侯楠","unique_id_no":"320412199409061654"}</t>
+          <t>{"unique_name":"单欢","unique_id_no":"341201199512062182"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"古玉梅","unique_id_no":"420684196708175363"}</t>
+          <t>{"unique_name":"左玉华","unique_id_no":"530821195607032933"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"朱颖","unique_id_no":"440308195501167047"}</t>
+          <t>{"unique_name":"胡晶","unique_id_no":"320117198206194423"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"傅燕","unique_id_no":"410822198911270357"}</t>
+          <t>{"unique_name":"孙莹","unique_id_no":"460200193711283730"}</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"unique_name":"祁飞","unique_id_no":"430100196706103304"}</t>
+          <t>{"unique_name":"师颖","unique_id_no":"350125199812073269"}</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"unique_name":"莫志强","unique_id_no":"542623196212284343"}</t>
+          <t>{"unique_name":"巢红","unique_id_no":"653221196505208549"}</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"unique_name":"易建军","unique_id_no":"410306194309159837"}</t>
+          <t>{"unique_name":"乐桂荣","unique_id_no":"420526194908144301"}</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"unique_name":"寿秀珍","unique_id_no":"445100197405166089"}</t>
+          <t>{"unique_name":"姬志强","unique_id_no":"512001197210118235"}</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"unique_name":"暨春梅","unique_id_no":"230229195705165278"}</t>
+          <t>{"unique_name":"皇红","unique_id_no":"430100193510096903"}</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"unique_name":"荀璐","unique_id_no":"340402196812053790"}</t>
+          <t>{"unique_name":"鞠洁","unique_id_no":"654225193303127233"}</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"unique_name":"淳红","unique_id_no":"21070119320821556X"}</t>
+          <t>{"unique_name":"唐玉兰","unique_id_no":"61042919610316360X"}</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"unique_name":"奚欢","unique_id_no":"530724197612150697"}</t>
+          <t>{"unique_name":"安琴","unique_id_no":"320684198203173827"}</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"unique_name":"石强","unique_id_no":"371521195405260051"}</t>
+          <t>{"unique_name":"堵建华","unique_id_no":"150204195210180890"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-16001_result.xlsx
+++ b/tests/data/output/一级测试用例-16001_result.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"unique_name":"人林","unique_id_no":"410221196712222426"}</t>
+          <t>{"unique_name":"娄畅","unique_id_no":"410404197803239089"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"unique_name":"阙龙","unique_id_no":"542226199410214646"}</t>
+          <t>{"unique_name":"璩俊","unique_id_no":"230128195509303467"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"unique_name":"翁莉","unique_id_no":"360000196110013806"}</t>
+          <t>{"unique_name":"甫凤兰","unique_id_no":"371327198002144938"}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"unique_name":"郑辉","unique_id_no":"430523197004131803"}</t>
+          <t>{"unique_name":"堵雷","unique_id_no":"222401198309202688"}</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"unique_name":"乌建","unique_id_no":"450902194602264761"}</t>
+          <t>{"unique_name":"娄磊","unique_id_no":"450331196909218506"}</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"unique_name":"山宁","unique_id_no":"620600199512248691"}</t>
+          <t>{"unique_name":"鄢颖","unique_id_no":"340121197806299580"}</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"unique_name":"干凯","unique_id_no":"441600194303192796"}</t>
+          <t>{"unique_name":"文琴","unique_id_no":"42900519320908106X"}</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"unique_name":"东燕","unique_id_no":"460300199602074748"}</t>
+          <t>{"unique_name":"干春梅","unique_id_no":"469030196402274637"}</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"unique_name":"邢静","unique_id_no":"361026196804088161"}</t>
+          <t>{"unique_name":"安鹏","unique_id_no":"411423193412045887"}</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"unique_name":"蒋颖","unique_id_no":"330000198704010075"}</t>
+          <t>{"unique_name":"魏秀梅","unique_id_no":"330723193803080896"}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"unique_name":"佴帅","unique_id_no":"220211200004289065"}</t>
+          <t>{"unique_name":"甘云","unique_id_no":"330881193904150004"}</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"unique_name":"双英","unique_id_no":"513324193611137246"}</t>
+          <t>{"unique_name":"跋桂珍","unique_id_no":"522624193503063611"}</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"unique_name":"满莹","unique_id_no":"420607197309125045"}</t>
+          <t>{"unique_name":"亢华","unique_id_no":"450621194202163470"}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"unique_name":"沈琳","unique_id_no":"450126199106110798"}</t>
+          <t>{"unique_name":"殷文","unique_id_no":"441600197308170047"}</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"unique_name":"呼帅","unique_id_no":"650202194307041214"}</t>
+          <t>{"unique_name":"弓桂珍","unique_id_no":"211081193505306913"}</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"unique_name":"於秀珍","unique_id_no":"360103197909089149"}</t>
+          <t>{"unique_name":"阳璐","unique_id_no":"421222196205249105"}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"unique_name":"俟兵","unique_id_no":"450125199706155934"}</t>
+          <t>{"unique_name":"应秀云","unique_id_no":"13060019670902013X"}</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"unique_name":"濮阳","unique_id_no":"140424195105020611"}</t>
+          <t>{"unique_name":"廉玉珍","unique_id_no":"420804199502116299"}</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"unique_name":"能婷婷","unique_id_no":"610724193911255183"}</t>
+          <t>{"unique_name":"支秀芳","unique_id_no":"370304195412121756"}</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"unique_name":"宇冬梅","unique_id_no":"361001195407221553"}</t>
+          <t>{"unique_name":"岳春梅","unique_id_no":"622925195005060640"}</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"unique_name":"门建军","unique_id_no":"130401197002074564"}</t>
+          <t>{"unique_name":"皮东","unique_id_no":"513328200108098049"}</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"unique_name":"冀玉兰","unique_id_no":"341822195311308146"}</t>
+          <t>{"unique_name":"项岩","unique_id_no":"340828197804217003"}</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"unique_name":"冷丽华","unique_id_no":"210301193212065996"}</t>
+          <t>{"unique_name":"弘芳","unique_id_no":"230300199903273502"}</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"unique_name":"楚红霞","unique_id_no":"410211193205162581"}</t>
+          <t>{"unique_name":"廖丽华","unique_id_no":"513328195306019213"}</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"unique_name":"黄健","unique_id_no":"340301196705201813"}</t>
+          <t>{"unique_name":"钮颖","unique_id_no":"520627197610301190"}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"unique_name":"龚秀芳","unique_id_no":"360922196812063872"}</t>
+          <t>{"unique_name":"廖琳","unique_id_no":"371522195502188879"}</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"unique_name":"邹秀荣","unique_id_no":"520181197507310364"}</t>
+          <t>{"unique_name":"骆桂荣","unique_id_no":"341823195010296918"}</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"unique_name":"雷成","unique_id_no":"361030197002089321"}</t>
+          <t>{"unique_name":"糜慧","unique_id_no":"411323195703075115"}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"unique_name":"双柳","unique_id_no":"441300199405202349"}</t>
+          <t>{"unique_name":"钮玉华","unique_id_no":"210522200103034707"}</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"unique_name":"容雷","unique_id_no":"370321195108198376"}</t>
+          <t>{"unique_name":"毕芳","unique_id_no":"321001197109144758"}</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"unique_name":"章柳","unique_id_no":"410304199107060345"}</t>
+          <t>{"unique_name":"壤红","unique_id_no":"210600193804125964"}</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"unique_name":"仇慧","unique_id_no":"542431193503230084"}</t>
+          <t>{"unique_name":"陈杨","unique_id_no":"654028193003212688"}</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"unique_name":"杭丽华","unique_id_no":"152527194001021074"}</t>
+          <t>{"unique_name":"谢强","unique_id_no":"610582194106128867"}</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{"unique_name":"台建军","unique_id_no":"53332319540322750X"}</t>
+          <t>{"unique_name":"束鑫","unique_id_no":"653200197402128602"}</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{"unique_name":"荣桂英","unique_id_no":"370830193908262414"}</t>
+          <t>{"unique_name":"戴磊","unique_id_no":"370611197603050072"}</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{"unique_name":"杜博","unique_id_no":"45033019560817932X"}</t>
+          <t>{"unique_name":"云桂英","unique_id_no":"36042619530605933X"}</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{"unique_name":"单建国","unique_id_no":"340823199903043077"}</t>
+          <t>{"unique_name":"桓峰","unique_id_no":"420505196806294699"}</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{"unique_name":"喻玉兰","unique_id_no":"320508194711056694"}</t>
+          <t>{"unique_name":"丘彬","unique_id_no":"210281195807168826"}</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{"unique_name":"晋晨","unique_id_no":"331081193112048180"}</t>
+          <t>{"unique_name":"贺明","unique_id_no":"321001196501150752"}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{"unique_name":"滑金凤","unique_id_no":"530300194003111530"}</t>
+          <t>{"unique_name":"赫兵","unique_id_no":"410200198206070797"}</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{"unique_name":"车秀兰","unique_id_no":"211003199811083920"}</t>
+          <t>{"unique_name":"赵英","unique_id_no":"530129199604241503"}</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{"unique_name":"池阳","unique_id_no":"34132119760116131X"}</t>
+          <t>{"unique_name":"潘玉兰","unique_id_no":"230200198003075922"}</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{"unique_name":"温春梅","unique_id_no":"37078619940114018X"}</t>
+          <t>{"unique_name":"葛文","unique_id_no":"220700198412311864"}</t>
         </is>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{"unique_name":"弘刚","unique_id_no":"420111196609095397"}</t>
+          <t>{"unique_name":"谢凤兰","unique_id_no":"130635196303191908"}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{"unique_name":"羿飞","unique_id_no":"51030119531015794X"}</t>
+          <t>{"unique_name":"计峰","unique_id_no":"411501195308011499"}</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{"unique_name":"嵇欢","unique_id_no":"440705198208036554"}</t>
+          <t>{"unique_name":"谷玉英","unique_id_no":"450703194205039005"}</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{"unique_name":"百红梅","unique_id_no":"140932197902027863"}</t>
+          <t>{"unique_name":"白金凤","unique_id_no":"430723194205291691"}</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{"unique_name":"甫建国","unique_id_no":"630121193509157384"}</t>
+          <t>{"unique_name":"方静","unique_id_no":"450981197702214744"}</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{"unique_name":"单欢","unique_id_no":"341201199512062182"}</t>
+          <t>{"unique_name":"松秀荣","unique_id_no":"421000198701169518"}</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{"unique_name":"左玉华","unique_id_no":"530821195607032933"}</t>
+          <t>{"unique_name":"仰刚","unique_id_no":"220581193009161581"}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{"unique_name":"胡晶","unique_id_no":"320117198206194423"}</t>
+          <t>{"unique_name":"单颖","unique_id_no":"540232194712163074"}</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{"unique_name":"孙莹","unique_id_no":"460200193711283730"}</t>
+          <t>{"unique_name":"王秀英","unique_id_no":"441521198807121398"}</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{"unique_name":"师颖","unique_id_no":"350125199812073269"}</t>
+          <t>{"unique_name":"计建","unique_id_no":"500241193801263215"}</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{"unique_name":"巢红","unique_id_no":"653221196505208549"}</t>
+          <t>{"unique_name":"强平","unique_id_no":"510403196308027460"}</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{"unique_name":"乐桂荣","unique_id_no":"420526194908144301"}</t>
+          <t>{"unique_name":"颛燕","unique_id_no":"330110194708133216"}</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{"unique_name":"姬志强","unique_id_no":"512001197210118235"}</t>
+          <t>{"unique_name":"张丽","unique_id_no":"420527194108252677"}</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{"unique_name":"皇红","unique_id_no":"430100193510096903"}</t>
+          <t>{"unique_name":"况玉梅","unique_id_no":"140427196603184380"}</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{"unique_name":"鞠洁","unique_id_no":"654225193303127233"}</t>
+          <t>{"unique_name":"傅玉梅","unique_id_no":"621201193502092468"}</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{"unique_name":"唐玉兰","unique_id_no":"61042919610316360X"}</t>
+          <t>{"unique_name":"凌秀芳","unique_id_no":"140824198010048174"}</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{"unique_name":"安琴","unique_id_no":"320684198203173827"}</t>
+          <t>{"unique_name":"须玉华","unique_id_no":"310120195404096085"}</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{"unique_name":"堵建华","unique_id_no":"150204195210180890"}</t>
+          <t>{"unique_name":"祁阳","unique_id_no":"331004198903108944"}</t>
         </is>
       </c>
     </row>
